--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H100_B16.xlsx
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.170998273772384</v>
+        <v>0.1320987001015213</v>
       </c>
       <c r="J2" t="n">
-        <v>2272.234184786928</v>
+        <v>1788.015067480998</v>
       </c>
       <c r="K2" t="n">
-        <v>7180397.994883988</v>
+        <v>4694992.758805302</v>
       </c>
       <c r="L2" t="n">
-        <v>2679.626465551493</v>
+        <v>2166.79319705534</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3423280945856855</v>
+        <v>0.1223020383395149</v>
       </c>
     </row>
   </sheetData>
